--- a/Analytics/D1/MultiBookings_d1.xlsx
+++ b/Analytics/D1/MultiBookings_d1.xlsx
@@ -76,67 +76,67 @@
     <t>18</t>
   </si>
   <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Mainz</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Mgladbach</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>St Pauli</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
     <t>Bochum</t>
   </si>
   <si>
-    <t>Mainz</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
+    <t>Bayern Munich</t>
   </si>
   <si>
     <t>Ein Frankfurt</t>
   </si>
   <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>FC Koln</t>
-  </si>
-  <si>
-    <t>Hoffenheim</t>
-  </si>
-  <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
-    <t>Leverkusen</t>
-  </si>
-  <si>
-    <t>Mgladbach</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Bayern Munich</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM("TMultiBookings")</t>
   </si>
   <si>
-    <t>SUM("TMultiBookings") / 34</t>
+    <t>SUM("TMultiBookings") / 9</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>14250.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>10900.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>9475.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>9400.0</v>
+        <v>3100.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>7100.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>6900.0</v>
+        <v>2550.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>6450.0</v>
+        <v>1950.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>6150.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>6100.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>5900.0</v>
+        <v>1750.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>5900.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>5850.0</v>
+        <v>1300.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>5600.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>5600.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>5100.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>5100.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>4350.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>3400.0</v>
+        <v>500.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>11200.0</v>
+        <v>4900.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>10925.0</v>
+        <v>4250.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>10800.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>9200.0</v>
+        <v>3450.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>8250.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>7700.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>7400.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>7000.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>6700.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>6200.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>6050.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>5900.0</v>
+        <v>1250.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>5700.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
-        <v>5000.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>4350.0</v>
+        <v>700.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
-        <v>4000.0</v>
+        <v>700.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" t="n">
-        <v>3750.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>3400.0</v>
+        <v>400.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>22500.0</v>
+        <v>6650.0</v>
       </c>
       <c r="D2" t="n">
-        <v>661.7647058823529</v>
+        <v>738.8888888888889</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>20675.0</v>
+        <v>6500.0</v>
       </c>
       <c r="D3" t="n">
-        <v>608.0882352941177</v>
+        <v>722.2222222222222</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>20325.0</v>
+        <v>5250.0</v>
       </c>
       <c r="D4" t="n">
-        <v>597.7941176470588</v>
+        <v>583.3333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>20100.0</v>
+        <v>5150.0</v>
       </c>
       <c r="D5" t="n">
-        <v>591.1764705882352</v>
+        <v>572.2222222222222</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>15150.0</v>
+        <v>4900.0</v>
       </c>
       <c r="D6" t="n">
-        <v>445.5882352941176</v>
+        <v>544.4444444444445</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>13300.0</v>
+        <v>4850.0</v>
       </c>
       <c r="D7" t="n">
-        <v>391.1764705882353</v>
+        <v>538.8888888888889</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>13250.0</v>
+        <v>4400.0</v>
       </c>
       <c r="D8" t="n">
-        <v>389.70588235294116</v>
+        <v>488.8888888888889</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>13150.0</v>
+        <v>4300.0</v>
       </c>
       <c r="D9" t="n">
-        <v>386.7647058823529</v>
+        <v>477.77777777777777</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>12650.0</v>
+        <v>4300.0</v>
       </c>
       <c r="D10" t="n">
-        <v>372.05882352941177</v>
+        <v>477.77777777777777</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>12600.0</v>
+        <v>4100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>370.5882352941176</v>
+        <v>455.55555555555554</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>12050.0</v>
+        <v>3850.0</v>
       </c>
       <c r="D12" t="n">
-        <v>354.4117647058824</v>
+        <v>427.77777777777777</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>11800.0</v>
+        <v>3800.0</v>
       </c>
       <c r="D13" t="n">
-        <v>347.05882352941177</v>
+        <v>422.22222222222223</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>10900.0</v>
+        <v>3500.0</v>
       </c>
       <c r="D14" t="n">
-        <v>320.5882352941176</v>
+        <v>388.8888888888889</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>10300.0</v>
+        <v>2400.0</v>
       </c>
       <c r="D15" t="n">
-        <v>302.94117647058823</v>
+        <v>266.6666666666667</v>
       </c>
     </row>
     <row r="16">
@@ -843,10 +843,10 @@
         <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>10250.0</v>
+        <v>2000.0</v>
       </c>
       <c r="D16" t="n">
-        <v>301.47058823529414</v>
+        <v>222.22222222222223</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>10100.0</v>
+        <v>1850.0</v>
       </c>
       <c r="D17" t="n">
-        <v>297.05882352941177</v>
+        <v>205.55555555555554</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C18" t="n">
-        <v>9100.0</v>
+        <v>1700.0</v>
       </c>
       <c r="D18" t="n">
-        <v>267.6470588235294</v>
+        <v>188.88888888888889</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>8850.0</v>
+        <v>1200.0</v>
       </c>
       <c r="D19" t="n">
-        <v>260.29411764705884</v>
+        <v>133.33333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/D1/MultiBookings_d1.xlsx
+++ b/Analytics/D1/MultiBookings_d1.xlsx
@@ -79,55 +79,55 @@
     <t>Holstein Kiel</t>
   </si>
   <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
     <t>Leverkusen</t>
   </si>
   <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
+    <t>Mainz</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
   </si>
   <si>
     <t>Hoffenheim</t>
   </si>
   <si>
-    <t>Mainz</t>
+    <t>St Pauli</t>
   </si>
   <si>
     <t>RB Leipzig</t>
   </si>
   <si>
-    <t>Stuttgart</t>
+    <t>Dortmund</t>
   </si>
   <si>
     <t>Werder Bremen</t>
   </si>
   <si>
-    <t>Wolfsburg</t>
+    <t>Freiburg</t>
   </si>
   <si>
     <t>Mgladbach</t>
   </si>
   <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>St Pauli</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
+    <t>Ein Frankfurt</t>
   </si>
   <si>
     <t>Bochum</t>
   </si>
   <si>
     <t>Bayern Munich</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>5100.0</v>
+        <v>5700.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>3500.0</v>
+        <v>5450.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>3500.0</v>
+        <v>4700.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>3100.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>2600.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>2550.0</v>
+        <v>3400.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>1950.0</v>
+        <v>3150.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>1900.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>1800.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>1750.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>1600.0</v>
+        <v>2550.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>1300.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>1200.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>1000.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>900.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>600.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>500.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="19">
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>4900.0</v>
+        <v>6300.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>4250.0</v>
+        <v>4550.0</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>3700.0</v>
+        <v>4350.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>3450.0</v>
+        <v>4250.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>2500.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>2400.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>2300.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>1900.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>1900.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>1500.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>1400.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="13">
@@ -545,7 +545,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>1250.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="n">
-        <v>900.0</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>800.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>700.0</v>
+        <v>1100.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>700.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>400.0</v>
+        <v>700.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C19" t="n">
-        <v>400.0</v>
+        <v>600.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>6650.0</v>
+        <v>9450.0</v>
       </c>
       <c r="D2" t="n">
-        <v>738.8888888888889</v>
+        <v>1050.0</v>
       </c>
     </row>
     <row r="3">
@@ -661,10 +661,10 @@
         <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>6500.0</v>
+        <v>8700.0</v>
       </c>
       <c r="D3" t="n">
-        <v>722.2222222222222</v>
+        <v>966.6666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>5250.0</v>
+        <v>7550.0</v>
       </c>
       <c r="D4" t="n">
-        <v>583.3333333333334</v>
+        <v>838.8888888888889</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>5150.0</v>
+        <v>7500.0</v>
       </c>
       <c r="D5" t="n">
-        <v>572.2222222222222</v>
+        <v>833.3333333333334</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>4900.0</v>
+        <v>7050.0</v>
       </c>
       <c r="D6" t="n">
-        <v>544.4444444444445</v>
+        <v>783.3333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>4850.0</v>
+        <v>6950.0</v>
       </c>
       <c r="D7" t="n">
-        <v>538.8888888888889</v>
+        <v>772.2222222222222</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>4400.0</v>
+        <v>6900.0</v>
       </c>
       <c r="D8" t="n">
-        <v>488.8888888888889</v>
+        <v>766.6666666666666</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>4300.0</v>
+        <v>6750.0</v>
       </c>
       <c r="D9" t="n">
-        <v>477.77777777777777</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>4300.0</v>
+        <v>6300.0</v>
       </c>
       <c r="D10" t="n">
-        <v>477.77777777777777</v>
+        <v>700.0</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>4100.0</v>
+        <v>5800.0</v>
       </c>
       <c r="D11" t="n">
-        <v>455.55555555555554</v>
+        <v>644.4444444444445</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>3850.0</v>
+        <v>5700.0</v>
       </c>
       <c r="D12" t="n">
-        <v>427.77777777777777</v>
+        <v>633.3333333333334</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>3800.0</v>
+        <v>5500.0</v>
       </c>
       <c r="D13" t="n">
-        <v>422.22222222222223</v>
+        <v>611.1111111111111</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>3500.0</v>
+        <v>5050.0</v>
       </c>
       <c r="D14" t="n">
-        <v>388.8888888888889</v>
+        <v>561.1111111111111</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>2400.0</v>
+        <v>4300.0</v>
       </c>
       <c r="D15" t="n">
-        <v>266.6666666666667</v>
+        <v>477.77777777777777</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>2000.0</v>
+        <v>3600.0</v>
       </c>
       <c r="D16" t="n">
-        <v>222.22222222222223</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>1850.0</v>
+        <v>2700.0</v>
       </c>
       <c r="D17" t="n">
-        <v>205.55555555555554</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
-        <v>1700.0</v>
+        <v>2500.0</v>
       </c>
       <c r="D18" t="n">
-        <v>188.88888888888889</v>
+        <v>277.77777777777777</v>
       </c>
     </row>
     <row r="19">
@@ -882,7 +882,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
         <v>1200.0</v>
